--- a/biomass/NCBI_taxonomy_IDs_for_xavier.xlsx
+++ b/biomass/NCBI_taxonomy_IDs_for_xavier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenscott/Documents/PhD/Segre-lab/GEM-repos/mit1002-model/biomass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37BE3994-7C79-CE48-9DEF-557E7291814F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F648343-D4C0-C444-8DEB-6DBB5CF9E970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{B38CFF54-4499-7945-A1FA-2E3099D24B81}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="68">
   <si>
     <t>Organism Name in Xavier 2017</t>
   </si>
@@ -195,13 +195,58 @@
   </si>
   <si>
     <t>Zymomonas mobilis</t>
+  </si>
+  <si>
+    <t>Priestia megaterium</t>
+  </si>
+  <si>
+    <t>Acetivibrio thermocellus</t>
+  </si>
+  <si>
+    <t>Dehalococcoides mccartyi </t>
+  </si>
+  <si>
+    <t>Lactiplantibacillus plantarum </t>
+  </si>
+  <si>
+    <t>[Mannheimia] succiniciproducens</t>
+  </si>
+  <si>
+    <t>Methylorubrum extorquens</t>
+  </si>
+  <si>
+    <t>Mycoplasmoides genitalium</t>
+  </si>
+  <si>
+    <t>Mycoplasmoides pneumoniae</t>
+  </si>
+  <si>
+    <t>Cupriavidus necator</t>
+  </si>
+  <si>
+    <t>Cereibacter sphaeroides</t>
+  </si>
+  <si>
+    <t>Salmonella enterica</t>
+  </si>
+  <si>
+    <t>Arthrospira platensis</t>
+  </si>
+  <si>
+    <t>Synechocystis sp. PCC 6803</t>
+  </si>
+  <si>
+    <t>NCBI scientific name</t>
+  </si>
+  <si>
+    <t>Crocosphaera subtropica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -221,6 +266,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -245,11 +298,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -258,9 +312,14 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -593,378 +652,601 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD844C11-4E81-004E-93BB-AC5D163B954F}">
-  <dimension ref="A1:A72"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="B2" sqref="B2:B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="43" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="57" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="43" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="43" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="43" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="43" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="43" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="43" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="43" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="43" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="43" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="43" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="43" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="43" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="43" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="43" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="43" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="43" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="43" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="43" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="43" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="43" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="43" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="43" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="43" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="43" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="43" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="43" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="43" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="43" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="43" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="43" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="43" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="43" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="43" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="43" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" ht="43" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="43" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B55" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:1" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B59" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B64" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="43" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="43" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="29" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B72" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" tooltip="species" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Info&amp;id=1404&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{7A02EF7E-2F3C-6B45-88CC-DD3348CC7B46}"/>
+    <hyperlink ref="B15" r:id="rId2" tooltip="species" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Info&amp;id=1515&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{699D7960-B3A8-C743-96AF-D2B8842BC052}"/>
+    <hyperlink ref="B18" r:id="rId3" tooltip="species" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Info&amp;id=61435&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{4D659EFA-AEB1-5B4B-9C3C-D71711DD7BD9}"/>
+    <hyperlink ref="B30" r:id="rId4" tooltip="species" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Info&amp;id=1590&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{F3900F36-A0CB-7445-97E9-68CA9F365E0A}"/>
+    <hyperlink ref="B32" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Tree&amp;id=157673&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{0FB0A97C-2A4D-7D4E-9647-F0AF8FC36319}"/>
+    <hyperlink ref="B36" r:id="rId6" tooltip="species" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Info&amp;id=408&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{1CB3F9FA-6111-554C-8CB4-0B2E84288661}"/>
+    <hyperlink ref="B41" r:id="rId7" tooltip="species" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Info&amp;id=2097&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{5ACFF8BD-4EC0-7B4D-916B-AEF461682D47}"/>
+    <hyperlink ref="B42" r:id="rId8" tooltip="species" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Info&amp;id=2104&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{E37606A3-523C-4E45-9E54-A0D32DB0D6FF}"/>
+    <hyperlink ref="B51" r:id="rId9" tooltip="species" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Info&amp;id=106590&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{E3878F9F-8341-924D-93E1-C51EF984A69A}"/>
+    <hyperlink ref="B52" r:id="rId10" tooltip="species" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Info&amp;id=1063&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{2C8D9EA3-C822-7244-9D08-4999C0E2F38B}"/>
+    <hyperlink ref="B55" r:id="rId11" tooltip="species" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Info&amp;id=28901&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{01373F1B-4E59-9343-8CB8-DBA043138DA9}"/>
+    <hyperlink ref="B59" r:id="rId12" tooltip="species" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Info&amp;id=118562&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{177BCAB4-D7C7-BD45-8134-ABBD370A9894}"/>
+    <hyperlink ref="B64" r:id="rId13" tooltip="species" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Info&amp;id=1148&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{F81C5207-03CD-744F-8AC3-54E7BD621192}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/biomass/NCBI_taxonomy_IDs_for_xavier.xlsx
+++ b/biomass/NCBI_taxonomy_IDs_for_xavier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenscott/Documents/PhD/Segre-lab/GEM-repos/mit1002-model/biomass/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F648343-D4C0-C444-8DEB-6DBB5CF9E970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA5AF8B-5607-FC43-AD95-1B1B8F3F6C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{B38CFF54-4499-7945-A1FA-2E3099D24B81}"/>
   </bookViews>
@@ -824,7 +824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -832,7 +832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -840,7 +840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -848,7 +848,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="43" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -856,7 +856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="43" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -864,7 +864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -872,7 +872,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -880,7 +880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="43" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -888,7 +888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="43" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -904,7 +904,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
@@ -920,7 +920,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="43" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
@@ -928,7 +928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="43" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -936,7 +936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
@@ -952,7 +952,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -960,7 +960,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="43" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>30</v>
       </c>
@@ -968,7 +968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="43" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
@@ -976,7 +976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="43" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>30</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="43" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>34</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="43" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>35</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="43" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="29" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>36</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>37</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>37</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="43" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>40</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="43" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>41</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>43</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>45</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>45</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>46</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>46</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>48</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>49</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="43" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>50</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>51</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>51</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>52</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>52</v>
       </c>
